--- a/BGU.DRPL.SignificantOwnership/Codegen/BGU_xsd_outil16.xlsx
+++ b/BGU.DRPL.SignificantOwnership/Codegen/BGU_xsd_outil16.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Forms" sheetId="2" r:id="rId2"/>
+    <sheet name="TypeEditors" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
   <si>
     <t>ClassName</t>
   </si>
@@ -124,6 +125,57 @@
   </si>
   <si>
     <t>ModalForm</t>
+  </si>
+  <si>
+    <t>RegLicAppx14NewSvc</t>
+  </si>
+  <si>
+    <t>RegLicAppx2LPQuest</t>
+  </si>
+  <si>
+    <t>RegLicAppx4PhysPQuest</t>
+  </si>
+  <si>
+    <t>RegLicAppx7ShareAcqIntent</t>
+  </si>
+  <si>
+    <t>AttachmentInfo</t>
+  </si>
+  <si>
+    <t>BankingLicensedActivityInfo</t>
+  </si>
+  <si>
+    <t>BankingLicenseInfo</t>
+  </si>
+  <si>
+    <t>ContactInfo</t>
+  </si>
+  <si>
+    <t>CouncilMemberInfo</t>
+  </si>
+  <si>
+    <t>CurrencyAmount</t>
+  </si>
+  <si>
+    <t>GenericPersonID</t>
+  </si>
+  <si>
+    <t>GenericPersonIDShare</t>
+  </si>
+  <si>
+    <t>GenericPersonInfo</t>
+  </si>
+  <si>
+    <t>OwnershipStructure</t>
+  </si>
+  <si>
+    <t>PersonsAssociation</t>
+  </si>
+  <si>
+    <t>PhoneInfo</t>
+  </si>
+  <si>
+    <t>PurchasedVoteInfo</t>
   </si>
 </sst>
 </file>
@@ -775,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -934,4 +986,1203 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"I"&amp; TRIM(A1) &amp; "EditFormFactory"</f>
+        <v>IAppx2OwnershipStructLPEditFormFactory</v>
+      </c>
+      <c r="C1" t="str">
+        <f>"public interface " &amp; B1 &amp; " : ITypeEditorFormFactoryBase { }"</f>
+        <v>public interface IAppx2OwnershipStructLPEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D1" t="str">
+        <f>A1&amp; "_Editor"</f>
+        <v>Appx2OwnershipStructLP_Editor</v>
+      </c>
+      <c r="E1" t="str">
+        <f>"public class " &amp; D1 &amp; " : GenericTypeEditor&lt;"&amp;A1&amp;"&gt; { private " &amp; B1 &amp; " _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;" &amp;B1 &amp; "&gt;(); return _fact; } }  }"</f>
+        <v>public class Appx2OwnershipStructLP_Editor : GenericTypeEditor&lt;Appx2OwnershipStructLP&gt; { private IAppx2OwnershipStructLPEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IAppx2OwnershipStructLPEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F1" t="str">
+        <f>A1&amp; "EditFormFactoryBasic"</f>
+        <v>Appx2OwnershipStructLPEditFormFactoryBasic</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"public class " &amp;F1&amp; " : " &amp; B1 &amp; " { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;" &amp;A1&amp; " &gt;(); } }"</f>
+        <v>public class Appx2OwnershipStructLPEditFormFactoryBasic : IAppx2OwnershipStructLPEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;Appx2OwnershipStructLP &gt;(); } }</v>
+      </c>
+      <c r="H1" t="str">
+        <f>"cont.RegisterInstance&lt;" &amp; B1 &amp; "&gt;(new " &amp; F1 &amp; "(), new ContainerControlledLifetimeManager());"</f>
+        <v>cont.RegisterInstance&lt;IAppx2OwnershipStructLPEditFormFactory&gt;(new Appx2OwnershipStructLPEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I1" t="str">
+        <f>"[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors." &amp;D1 &amp; "), typeof(System.Drawing.Design.UITypeEditor))]"</f>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.Appx2OwnershipStructLP_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B32" si="0">"I"&amp; TRIM(A2) &amp; "EditFormFactory"</f>
+        <v>IRegLicAppx14NewSvcEditFormFactory</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C32" si="1">"public interface I"&amp; TRIM(A2) &amp; "EditFormFactory : ITypeEditorFormFactoryBase { }"</f>
+        <v>public interface IRegLicAppx14NewSvcEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D32" si="2">A2&amp; "_Editor"</f>
+        <v>RegLicAppx14NewSvc_Editor</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E32" si="3">"public class " &amp; D2 &amp; " : GenericTypeEditor&lt;"&amp;A2&amp;"&gt; { private " &amp; B2 &amp; " _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;" &amp;B2 &amp; "&gt;(); return _fact; } }  }"</f>
+        <v>public class RegLicAppx14NewSvc_Editor : GenericTypeEditor&lt;RegLicAppx14NewSvc&gt; { private IRegLicAppx14NewSvcEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IRegLicAppx14NewSvcEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F32" si="4">A2&amp; "EditFormFactoryBasic"</f>
+        <v>RegLicAppx14NewSvcEditFormFactoryBasic</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G32" si="5">"public class " &amp;F2&amp; " : " &amp; B2 &amp; " { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;" &amp;A2&amp; " &gt;(); } }"</f>
+        <v>public class RegLicAppx14NewSvcEditFormFactoryBasic : IRegLicAppx14NewSvcEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;RegLicAppx14NewSvc &gt;(); } }</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H32" si="6">"cont.RegisterInstance&lt;" &amp; B2 &amp; "&gt;(new " &amp; F2 &amp; "(), new ContainerControlledLifetimeManager());"</f>
+        <v>cont.RegisterInstance&lt;IRegLicAppx14NewSvcEditFormFactory&gt;(new RegLicAppx14NewSvcEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I32" si="7">"[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors." &amp;D2 &amp; "), typeof(System.Drawing.Design.UITypeEditor))]"</f>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.RegLicAppx14NewSvc_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>IRegLicAppx2LPQuestEditFormFactory</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IRegLicAppx2LPQuestEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="2"/>
+        <v>RegLicAppx2LPQuest_Editor</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="3"/>
+        <v>public class RegLicAppx2LPQuest_Editor : GenericTypeEditor&lt;RegLicAppx2LPQuest&gt; { private IRegLicAppx2LPQuestEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IRegLicAppx2LPQuestEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="4"/>
+        <v>RegLicAppx2LPQuestEditFormFactoryBasic</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="5"/>
+        <v>public class RegLicAppx2LPQuestEditFormFactoryBasic : IRegLicAppx2LPQuestEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;RegLicAppx2LPQuest &gt;(); } }</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IRegLicAppx2LPQuestEditFormFactory&gt;(new RegLicAppx2LPQuestEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.RegLicAppx2LPQuest_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>IRegLicAppx4PhysPQuestEditFormFactory</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IRegLicAppx4PhysPQuestEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>RegLicAppx4PhysPQuest_Editor</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>public class RegLicAppx4PhysPQuest_Editor : GenericTypeEditor&lt;RegLicAppx4PhysPQuest&gt; { private IRegLicAppx4PhysPQuestEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IRegLicAppx4PhysPQuestEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>RegLicAppx4PhysPQuestEditFormFactoryBasic</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="5"/>
+        <v>public class RegLicAppx4PhysPQuestEditFormFactoryBasic : IRegLicAppx4PhysPQuestEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;RegLicAppx4PhysPQuest &gt;(); } }</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IRegLicAppx4PhysPQuestEditFormFactory&gt;(new RegLicAppx4PhysPQuestEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.RegLicAppx4PhysPQuest_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>IRegLicAppx7ShareAcqIntentEditFormFactory</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IRegLicAppx7ShareAcqIntentEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>RegLicAppx7ShareAcqIntent_Editor</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>public class RegLicAppx7ShareAcqIntent_Editor : GenericTypeEditor&lt;RegLicAppx7ShareAcqIntent&gt; { private IRegLicAppx7ShareAcqIntentEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IRegLicAppx7ShareAcqIntentEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v>RegLicAppx7ShareAcqIntentEditFormFactoryBasic</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="5"/>
+        <v>public class RegLicAppx7ShareAcqIntentEditFormFactoryBasic : IRegLicAppx7ShareAcqIntentEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;RegLicAppx7ShareAcqIntent &gt;(); } }</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IRegLicAppx7ShareAcqIntentEditFormFactory&gt;(new RegLicAppx7ShareAcqIntentEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.RegLicAppx7ShareAcqIntent_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>IAttachmentInfoEditFormFactory</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IAttachmentInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>AttachmentInfo_Editor</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>public class AttachmentInfo_Editor : GenericTypeEditor&lt;AttachmentInfo&gt; { private IAttachmentInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IAttachmentInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v>AttachmentInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="5"/>
+        <v>public class AttachmentInfoEditFormFactoryBasic : IAttachmentInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;AttachmentInfo &gt;(); } }</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IAttachmentInfoEditFormFactory&gt;(new AttachmentInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.AttachmentInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>IBankingLicensedActivityInfoEditFormFactory</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IBankingLicensedActivityInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>BankingLicensedActivityInfo_Editor</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>public class BankingLicensedActivityInfo_Editor : GenericTypeEditor&lt;BankingLicensedActivityInfo&gt; { private IBankingLicensedActivityInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IBankingLicensedActivityInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v>BankingLicensedActivityInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="5"/>
+        <v>public class BankingLicensedActivityInfoEditFormFactoryBasic : IBankingLicensedActivityInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;BankingLicensedActivityInfo &gt;(); } }</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IBankingLicensedActivityInfoEditFormFactory&gt;(new BankingLicensedActivityInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.BankingLicensedActivityInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>IBankingLicenseInfoEditFormFactory</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IBankingLicenseInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>BankingLicenseInfo_Editor</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="3"/>
+        <v>public class BankingLicenseInfo_Editor : GenericTypeEditor&lt;BankingLicenseInfo&gt; { private IBankingLicenseInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IBankingLicenseInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="4"/>
+        <v>BankingLicenseInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="5"/>
+        <v>public class BankingLicenseInfoEditFormFactoryBasic : IBankingLicenseInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;BankingLicenseInfo &gt;(); } }</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IBankingLicenseInfoEditFormFactory&gt;(new BankingLicenseInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.BankingLicenseInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>ICommonOwnershipInfoEditFormFactory</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface ICommonOwnershipInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>CommonOwnershipInfo_Editor</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v>public class CommonOwnershipInfo_Editor : GenericTypeEditor&lt;CommonOwnershipInfo&gt; { private ICommonOwnershipInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ICommonOwnershipInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="4"/>
+        <v>CommonOwnershipInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="5"/>
+        <v>public class CommonOwnershipInfoEditFormFactoryBasic : ICommonOwnershipInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;CommonOwnershipInfo &gt;(); } }</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;ICommonOwnershipInfoEditFormFactory&gt;(new CommonOwnershipInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.CommonOwnershipInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>IContactInfoEditFormFactory</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IContactInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>ContactInfo_Editor</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v>public class ContactInfo_Editor : GenericTypeEditor&lt;ContactInfo&gt; { private IContactInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IContactInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="4"/>
+        <v>ContactInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="5"/>
+        <v>public class ContactInfoEditFormFactoryBasic : IContactInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;ContactInfo &gt;(); } }</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IContactInfoEditFormFactory&gt;(new ContactInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.ContactInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>ICouncilBodyInfoEditFormFactory</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface ICouncilBodyInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>CouncilBodyInfo_Editor</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="3"/>
+        <v>public class CouncilBodyInfo_Editor : GenericTypeEditor&lt;CouncilBodyInfo&gt; { private ICouncilBodyInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ICouncilBodyInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="4"/>
+        <v>CouncilBodyInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="5"/>
+        <v>public class CouncilBodyInfoEditFormFactoryBasic : ICouncilBodyInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;CouncilBodyInfo &gt;(); } }</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;ICouncilBodyInfoEditFormFactory&gt;(new CouncilBodyInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.CouncilBodyInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>ICouncilMemberInfoEditFormFactory</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface ICouncilMemberInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>CouncilMemberInfo_Editor</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="3"/>
+        <v>public class CouncilMemberInfo_Editor : GenericTypeEditor&lt;CouncilMemberInfo&gt; { private ICouncilMemberInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ICouncilMemberInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="4"/>
+        <v>CouncilMemberInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="5"/>
+        <v>public class CouncilMemberInfoEditFormFactoryBasic : ICouncilMemberInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;CouncilMemberInfo &gt;(); } }</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;ICouncilMemberInfoEditFormFactory&gt;(new CouncilMemberInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.CouncilMemberInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>ICurrencyAmountEditFormFactory</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface ICurrencyAmountEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>CurrencyAmount_Editor</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v>public class CurrencyAmount_Editor : GenericTypeEditor&lt;CurrencyAmount&gt; { private ICurrencyAmountEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ICurrencyAmountEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="4"/>
+        <v>CurrencyAmountEditFormFactoryBasic</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="5"/>
+        <v>public class CurrencyAmountEditFormFactoryBasic : ICurrencyAmountEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;CurrencyAmount &gt;(); } }</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;ICurrencyAmountEditFormFactory&gt;(new CurrencyAmountEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.CurrencyAmount_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>IGenericPersonIDEditFormFactory</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IGenericPersonIDEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>GenericPersonID_Editor</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="3"/>
+        <v>public class GenericPersonID_Editor : GenericTypeEditor&lt;GenericPersonID&gt; { private IGenericPersonIDEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IGenericPersonIDEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="4"/>
+        <v>GenericPersonIDEditFormFactoryBasic</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="5"/>
+        <v>public class GenericPersonIDEditFormFactoryBasic : IGenericPersonIDEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;GenericPersonID &gt;(); } }</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IGenericPersonIDEditFormFactory&gt;(new GenericPersonIDEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.GenericPersonID_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>IGenericPersonIDShareEditFormFactory</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IGenericPersonIDShareEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>GenericPersonIDShare_Editor</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v>public class GenericPersonIDShare_Editor : GenericTypeEditor&lt;GenericPersonIDShare&gt; { private IGenericPersonIDShareEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IGenericPersonIDShareEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="4"/>
+        <v>GenericPersonIDShareEditFormFactoryBasic</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="5"/>
+        <v>public class GenericPersonIDShareEditFormFactoryBasic : IGenericPersonIDShareEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;GenericPersonIDShare &gt;(); } }</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IGenericPersonIDShareEditFormFactory&gt;(new GenericPersonIDShareEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.GenericPersonIDShare_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>IGenericPersonInfoEditFormFactory</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IGenericPersonInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>GenericPersonInfo_Editor</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v>public class GenericPersonInfo_Editor : GenericTypeEditor&lt;GenericPersonInfo&gt; { private IGenericPersonInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IGenericPersonInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="4"/>
+        <v>GenericPersonInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="5"/>
+        <v>public class GenericPersonInfoEditFormFactoryBasic : IGenericPersonInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;GenericPersonInfo &gt;(); } }</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IGenericPersonInfoEditFormFactory&gt;(new GenericPersonInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.GenericPersonInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>ILegalPersonShareInfoEditFormFactory</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface ILegalPersonShareInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>LegalPersonShareInfo_Editor</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v>public class LegalPersonShareInfo_Editor : GenericTypeEditor&lt;LegalPersonShareInfo&gt; { private ILegalPersonShareInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ILegalPersonShareInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="4"/>
+        <v>LegalPersonShareInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="5"/>
+        <v>public class LegalPersonShareInfoEditFormFactoryBasic : ILegalPersonShareInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;LegalPersonShareInfo &gt;(); } }</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;ILegalPersonShareInfoEditFormFactory&gt;(new LegalPersonShareInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.LegalPersonShareInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>IOwnershipStructureEditFormFactory</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IOwnershipStructureEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>OwnershipStructure_Editor</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v>public class OwnershipStructure_Editor : GenericTypeEditor&lt;OwnershipStructure&gt; { private IOwnershipStructureEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IOwnershipStructureEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="4"/>
+        <v>OwnershipStructureEditFormFactoryBasic</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="5"/>
+        <v>public class OwnershipStructureEditFormFactoryBasic : IOwnershipStructureEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;OwnershipStructure &gt;(); } }</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IOwnershipStructureEditFormFactory&gt;(new OwnershipStructureEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.OwnershipStructure_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>IOwnershipSummaryInfoEditFormFactory</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IOwnershipSummaryInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>OwnershipSummaryInfo_Editor</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v>public class OwnershipSummaryInfo_Editor : GenericTypeEditor&lt;OwnershipSummaryInfo&gt; { private IOwnershipSummaryInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IOwnershipSummaryInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="4"/>
+        <v>OwnershipSummaryInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="5"/>
+        <v>public class OwnershipSummaryInfoEditFormFactoryBasic : IOwnershipSummaryInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;OwnershipSummaryInfo &gt;(); } }</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IOwnershipSummaryInfoEditFormFactory&gt;(new OwnershipSummaryInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.OwnershipSummaryInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>IOwnershipVotesInfoEditFormFactory</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IOwnershipVotesInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>OwnershipVotesInfo_Editor</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="3"/>
+        <v>public class OwnershipVotesInfo_Editor : GenericTypeEditor&lt;OwnershipVotesInfo&gt; { private IOwnershipVotesInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IOwnershipVotesInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="4"/>
+        <v>OwnershipVotesInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="5"/>
+        <v>public class OwnershipVotesInfoEditFormFactoryBasic : IOwnershipVotesInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;OwnershipVotesInfo &gt;(); } }</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IOwnershipVotesInfoEditFormFactory&gt;(new OwnershipVotesInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.OwnershipVotesInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>IPersonsAssociationEditFormFactory</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IPersonsAssociationEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>PersonsAssociation_Editor</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="3"/>
+        <v>public class PersonsAssociation_Editor : GenericTypeEditor&lt;PersonsAssociation&gt; { private IPersonsAssociationEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IPersonsAssociationEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="4"/>
+        <v>PersonsAssociationEditFormFactoryBasic</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="5"/>
+        <v>public class PersonsAssociationEditFormFactoryBasic : IPersonsAssociationEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PersonsAssociation &gt;(); } }</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IPersonsAssociationEditFormFactory&gt;(new PersonsAssociationEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.PersonsAssociation_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>IPhoneInfoEditFormFactory</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IPhoneInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v>PhoneInfo_Editor</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="3"/>
+        <v>public class PhoneInfo_Editor : GenericTypeEditor&lt;PhoneInfo&gt; { private IPhoneInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IPhoneInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="4"/>
+        <v>PhoneInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="5"/>
+        <v>public class PhoneInfoEditFormFactoryBasic : IPhoneInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PhoneInfo &gt;(); } }</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IPhoneInfoEditFormFactory&gt;(new PhoneInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.PhoneInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>IPhysicalPersonShareInfoEditFormFactory</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IPhysicalPersonShareInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>PhysicalPersonShareInfo_Editor</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="3"/>
+        <v>public class PhysicalPersonShareInfo_Editor : GenericTypeEditor&lt;PhysicalPersonShareInfo&gt; { private IPhysicalPersonShareInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IPhysicalPersonShareInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="4"/>
+        <v>PhysicalPersonShareInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="5"/>
+        <v>public class PhysicalPersonShareInfoEditFormFactoryBasic : IPhysicalPersonShareInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PhysicalPersonShareInfo &gt;(); } }</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IPhysicalPersonShareInfoEditFormFactory&gt;(new PhysicalPersonShareInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.PhysicalPersonShareInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>IPurchasedVoteInfoEditFormFactory</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IPurchasedVoteInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>PurchasedVoteInfo_Editor</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="3"/>
+        <v>public class PurchasedVoteInfo_Editor : GenericTypeEditor&lt;PurchasedVoteInfo&gt; { private IPurchasedVoteInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IPurchasedVoteInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="4"/>
+        <v>PurchasedVoteInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="5"/>
+        <v>public class PurchasedVoteInfoEditFormFactoryBasic : IPurchasedVoteInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PurchasedVoteInfo &gt;(); } }</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IPurchasedVoteInfoEditFormFactory&gt;(new PurchasedVoteInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.PurchasedVoteInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>ISignatoryInfoEditFormFactory</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface ISignatoryInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v>SignatoryInfo_Editor</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="3"/>
+        <v>public class SignatoryInfo_Editor : GenericTypeEditor&lt;SignatoryInfo&gt; { private ISignatoryInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ISignatoryInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="4"/>
+        <v>SignatoryInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="5"/>
+        <v>public class SignatoryInfoEditFormFactoryBasic : ISignatoryInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;SignatoryInfo &gt;(); } }</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;ISignatoryInfoEditFormFactory&gt;(new SignatoryInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.SignatoryInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>ITotalOwnershipDetailsInfoEditFormFactory</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface ITotalOwnershipDetailsInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v>TotalOwnershipDetailsInfo_Editor</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="3"/>
+        <v>public class TotalOwnershipDetailsInfo_Editor : GenericTypeEditor&lt;TotalOwnershipDetailsInfo&gt; { private ITotalOwnershipDetailsInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ITotalOwnershipDetailsInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="4"/>
+        <v>TotalOwnershipDetailsInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="5"/>
+        <v>public class TotalOwnershipDetailsInfoEditFormFactoryBasic : ITotalOwnershipDetailsInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;TotalOwnershipDetailsInfo &gt;(); } }</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;ITotalOwnershipDetailsInfoEditFormFactory&gt;(new TotalOwnershipDetailsInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.TotalOwnershipDetailsInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>IBankInfoEditFormFactory</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IBankInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>BankInfo_Editor</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="3"/>
+        <v>public class BankInfo_Editor : GenericTypeEditor&lt;BankInfo&gt; { private IBankInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IBankInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="4"/>
+        <v>BankInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="5"/>
+        <v>public class BankInfoEditFormFactoryBasic : IBankInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;BankInfo &gt;(); } }</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IBankInfoEditFormFactory&gt;(new BankInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.BankInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>ICountryInfoEditFormFactory</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface ICountryInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>CountryInfo_Editor</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="3"/>
+        <v>public class CountryInfo_Editor : GenericTypeEditor&lt;CountryInfo&gt; { private ICountryInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ICountryInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="4"/>
+        <v>CountryInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="5"/>
+        <v>public class CountryInfoEditFormFactoryBasic : ICountryInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;CountryInfo &gt;(); } }</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;ICountryInfoEditFormFactory&gt;(new CountryInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.CountryInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>ILegalPersonInfoEditFormFactory</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface ILegalPersonInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>LegalPersonInfo_Editor</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="3"/>
+        <v>public class LegalPersonInfo_Editor : GenericTypeEditor&lt;LegalPersonInfo&gt; { private ILegalPersonInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ILegalPersonInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="4"/>
+        <v>LegalPersonInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="5"/>
+        <v>public class LegalPersonInfoEditFormFactoryBasic : ILegalPersonInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;LegalPersonInfo &gt;(); } }</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;ILegalPersonInfoEditFormFactory&gt;(new LegalPersonInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.LegalPersonInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>ILocationInfoEditFormFactory</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface ILocationInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>LocationInfo_Editor</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="3"/>
+        <v>public class LocationInfo_Editor : GenericTypeEditor&lt;LocationInfo&gt; { private ILocationInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ILocationInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="4"/>
+        <v>LocationInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="5"/>
+        <v>public class LocationInfoEditFormFactoryBasic : ILocationInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;LocationInfo &gt;(); } }</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;ILocationInfoEditFormFactory&gt;(new LocationInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.LocationInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>IPhysicalPersonInfoEditFormFactory</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IPhysicalPersonInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>PhysicalPersonInfo_Editor</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="3"/>
+        <v>public class PhysicalPersonInfo_Editor : GenericTypeEditor&lt;PhysicalPersonInfo&gt; { private IPhysicalPersonInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IPhysicalPersonInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="4"/>
+        <v>PhysicalPersonInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="5"/>
+        <v>public class PhysicalPersonInfoEditFormFactoryBasic : IPhysicalPersonInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PhysicalPersonInfo &gt;(); } }</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IPhysicalPersonInfoEditFormFactory&gt;(new PhysicalPersonInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.PhysicalPersonInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>IRegistrarAuthorityEditFormFactory</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>public interface IRegistrarAuthorityEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>RegistrarAuthority_Editor</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="3"/>
+        <v>public class RegistrarAuthority_Editor : GenericTypeEditor&lt;RegistrarAuthority&gt; { private IRegistrarAuthorityEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IRegistrarAuthorityEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="4"/>
+        <v>RegistrarAuthorityEditFormFactoryBasic</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="5"/>
+        <v>public class RegistrarAuthorityEditFormFactoryBasic : IRegistrarAuthorityEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;RegistrarAuthority &gt;(); } }</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="6"/>
+        <v>cont.RegisterInstance&lt;IRegistrarAuthorityEditFormFactory&gt;(new RegistrarAuthorityEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="7"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.RegistrarAuthority_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BGU.DRPL.SignificantOwnership/Codegen/BGU_xsd_outil16.xlsx
+++ b/BGU.DRPL.SignificantOwnership/Codegen/BGU_xsd_outil16.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
   <si>
     <t>ClassName</t>
   </si>
@@ -176,6 +176,63 @@
   </si>
   <si>
     <t>PurchasedVoteInfo</t>
+  </si>
+  <si>
+    <t>BreachOfLawRecordInfo</t>
+  </si>
+  <si>
+    <t>EducationRecordInfo</t>
+  </si>
+  <si>
+    <t>EmploymentRecordInfo</t>
+  </si>
+  <si>
+    <t>FinancialGuaranteeInfo</t>
+  </si>
+  <si>
+    <t>IncomeOriginInfo</t>
+  </si>
+  <si>
+    <t>IndebtnessInfo</t>
+  </si>
+  <si>
+    <t>IndebtnessInfoBase</t>
+  </si>
+  <si>
+    <t>LiquidatedEntityOwnershipInfo</t>
+  </si>
+  <si>
+    <t>LoanInfo</t>
+  </si>
+  <si>
+    <t>PaymentDeadlineInfo</t>
+  </si>
+  <si>
+    <t>PaymentModeInfo</t>
+  </si>
+  <si>
+    <t>ProfessionLicenseInfo</t>
+  </si>
+  <si>
+    <t>SharesAcquisitionInfo</t>
+  </si>
+  <si>
+    <t>BankAccountInfo</t>
+  </si>
+  <si>
+    <t>ProfessionLicensingBodyInfo</t>
+  </si>
+  <si>
+    <t>PublicationInfo</t>
+  </si>
+  <si>
+    <t>PublishingHouseInfo</t>
+  </si>
+  <si>
+    <t>UniversityOrCollegeInfo</t>
+  </si>
+  <si>
+    <t>FinancialOversightAuthorityInfo</t>
   </si>
 </sst>
 </file>
@@ -990,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,6 +2239,709 @@
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.RegistrarAuthority_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" ref="B33:B50" si="8">"I"&amp; TRIM(A33) &amp; "EditFormFactory"</f>
+        <v>IBreachOfLawRecordInfoEditFormFactory</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" ref="C33:C50" si="9">"public interface I"&amp; TRIM(A33) &amp; "EditFormFactory : ITypeEditorFormFactoryBase { }"</f>
+        <v>public interface IBreachOfLawRecordInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" ref="D33:D50" si="10">A33&amp; "_Editor"</f>
+        <v>BreachOfLawRecordInfo_Editor</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" ref="E33:E50" si="11">"public class " &amp; D33 &amp; " : GenericTypeEditor&lt;"&amp;A33&amp;"&gt; { private " &amp; B33 &amp; " _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;" &amp;B33 &amp; "&gt;(); return _fact; } }  }"</f>
+        <v>public class BreachOfLawRecordInfo_Editor : GenericTypeEditor&lt;BreachOfLawRecordInfo&gt; { private IBreachOfLawRecordInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IBreachOfLawRecordInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" ref="F33:F50" si="12">A33&amp; "EditFormFactoryBasic"</f>
+        <v>BreachOfLawRecordInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" ref="G33:G50" si="13">"public class " &amp;F33&amp; " : " &amp; B33 &amp; " { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;" &amp;A33&amp; " &gt;(); } }"</f>
+        <v>public class BreachOfLawRecordInfoEditFormFactoryBasic : IBreachOfLawRecordInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;BreachOfLawRecordInfo &gt;(); } }</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" ref="H33:H50" si="14">"cont.RegisterInstance&lt;" &amp; B33 &amp; "&gt;(new " &amp; F33 &amp; "(), new ContainerControlledLifetimeManager());"</f>
+        <v>cont.RegisterInstance&lt;IBreachOfLawRecordInfoEditFormFactory&gt;(new BreachOfLawRecordInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" ref="I33:I50" si="15">"[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors." &amp;D33 &amp; "), typeof(System.Drawing.Design.UITypeEditor))]"</f>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.BreachOfLawRecordInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="8"/>
+        <v>IEducationRecordInfoEditFormFactory</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface IEducationRecordInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="10"/>
+        <v>EducationRecordInfo_Editor</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="11"/>
+        <v>public class EducationRecordInfo_Editor : GenericTypeEditor&lt;EducationRecordInfo&gt; { private IEducationRecordInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IEducationRecordInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="12"/>
+        <v>EducationRecordInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="13"/>
+        <v>public class EducationRecordInfoEditFormFactoryBasic : IEducationRecordInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;EducationRecordInfo &gt;(); } }</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;IEducationRecordInfoEditFormFactory&gt;(new EducationRecordInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.EducationRecordInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="8"/>
+        <v>IEmploymentRecordInfoEditFormFactory</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface IEmploymentRecordInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="10"/>
+        <v>EmploymentRecordInfo_Editor</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="11"/>
+        <v>public class EmploymentRecordInfo_Editor : GenericTypeEditor&lt;EmploymentRecordInfo&gt; { private IEmploymentRecordInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IEmploymentRecordInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="12"/>
+        <v>EmploymentRecordInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="13"/>
+        <v>public class EmploymentRecordInfoEditFormFactoryBasic : IEmploymentRecordInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;EmploymentRecordInfo &gt;(); } }</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;IEmploymentRecordInfoEditFormFactory&gt;(new EmploymentRecordInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.EmploymentRecordInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="8"/>
+        <v>IFinancialGuaranteeInfoEditFormFactory</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface IFinancialGuaranteeInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="10"/>
+        <v>FinancialGuaranteeInfo_Editor</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="11"/>
+        <v>public class FinancialGuaranteeInfo_Editor : GenericTypeEditor&lt;FinancialGuaranteeInfo&gt; { private IFinancialGuaranteeInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IFinancialGuaranteeInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="12"/>
+        <v>FinancialGuaranteeInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="13"/>
+        <v>public class FinancialGuaranteeInfoEditFormFactoryBasic : IFinancialGuaranteeInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;FinancialGuaranteeInfo &gt;(); } }</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;IFinancialGuaranteeInfoEditFormFactory&gt;(new FinancialGuaranteeInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.FinancialGuaranteeInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="8"/>
+        <v>IIncomeOriginInfoEditFormFactory</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface IIncomeOriginInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="10"/>
+        <v>IncomeOriginInfo_Editor</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="11"/>
+        <v>public class IncomeOriginInfo_Editor : GenericTypeEditor&lt;IncomeOriginInfo&gt; { private IIncomeOriginInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IIncomeOriginInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="12"/>
+        <v>IncomeOriginInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="13"/>
+        <v>public class IncomeOriginInfoEditFormFactoryBasic : IIncomeOriginInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;IncomeOriginInfo &gt;(); } }</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;IIncomeOriginInfoEditFormFactory&gt;(new IncomeOriginInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.IncomeOriginInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="8"/>
+        <v>IIndebtnessInfoEditFormFactory</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface IIndebtnessInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="10"/>
+        <v>IndebtnessInfo_Editor</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="11"/>
+        <v>public class IndebtnessInfo_Editor : GenericTypeEditor&lt;IndebtnessInfo&gt; { private IIndebtnessInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IIndebtnessInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="12"/>
+        <v>IndebtnessInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="13"/>
+        <v>public class IndebtnessInfoEditFormFactoryBasic : IIndebtnessInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;IndebtnessInfo &gt;(); } }</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;IIndebtnessInfoEditFormFactory&gt;(new IndebtnessInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.IndebtnessInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="8"/>
+        <v>IIndebtnessInfoBaseEditFormFactory</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface IIndebtnessInfoBaseEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="10"/>
+        <v>IndebtnessInfoBase_Editor</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="11"/>
+        <v>public class IndebtnessInfoBase_Editor : GenericTypeEditor&lt;IndebtnessInfoBase&gt; { private IIndebtnessInfoBaseEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IIndebtnessInfoBaseEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="12"/>
+        <v>IndebtnessInfoBaseEditFormFactoryBasic</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="13"/>
+        <v>public class IndebtnessInfoBaseEditFormFactoryBasic : IIndebtnessInfoBaseEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;IndebtnessInfoBase &gt;(); } }</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;IIndebtnessInfoBaseEditFormFactory&gt;(new IndebtnessInfoBaseEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.IndebtnessInfoBase_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="8"/>
+        <v>ILiquidatedEntityOwnershipInfoEditFormFactory</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface ILiquidatedEntityOwnershipInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="10"/>
+        <v>LiquidatedEntityOwnershipInfo_Editor</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="11"/>
+        <v>public class LiquidatedEntityOwnershipInfo_Editor : GenericTypeEditor&lt;LiquidatedEntityOwnershipInfo&gt; { private ILiquidatedEntityOwnershipInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ILiquidatedEntityOwnershipInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="12"/>
+        <v>LiquidatedEntityOwnershipInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="13"/>
+        <v>public class LiquidatedEntityOwnershipInfoEditFormFactoryBasic : ILiquidatedEntityOwnershipInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;LiquidatedEntityOwnershipInfo &gt;(); } }</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;ILiquidatedEntityOwnershipInfoEditFormFactory&gt;(new LiquidatedEntityOwnershipInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.LiquidatedEntityOwnershipInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="8"/>
+        <v>ILoanInfoEditFormFactory</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface ILoanInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="10"/>
+        <v>LoanInfo_Editor</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="11"/>
+        <v>public class LoanInfo_Editor : GenericTypeEditor&lt;LoanInfo&gt; { private ILoanInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ILoanInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="12"/>
+        <v>LoanInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="13"/>
+        <v>public class LoanInfoEditFormFactoryBasic : ILoanInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;LoanInfo &gt;(); } }</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;ILoanInfoEditFormFactory&gt;(new LoanInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.LoanInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="8"/>
+        <v>IPaymentDeadlineInfoEditFormFactory</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface IPaymentDeadlineInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="10"/>
+        <v>PaymentDeadlineInfo_Editor</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="11"/>
+        <v>public class PaymentDeadlineInfo_Editor : GenericTypeEditor&lt;PaymentDeadlineInfo&gt; { private IPaymentDeadlineInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IPaymentDeadlineInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="12"/>
+        <v>PaymentDeadlineInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="13"/>
+        <v>public class PaymentDeadlineInfoEditFormFactoryBasic : IPaymentDeadlineInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PaymentDeadlineInfo &gt;(); } }</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;IPaymentDeadlineInfoEditFormFactory&gt;(new PaymentDeadlineInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.PaymentDeadlineInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="8"/>
+        <v>IPaymentModeInfoEditFormFactory</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface IPaymentModeInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="10"/>
+        <v>PaymentModeInfo_Editor</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="11"/>
+        <v>public class PaymentModeInfo_Editor : GenericTypeEditor&lt;PaymentModeInfo&gt; { private IPaymentModeInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IPaymentModeInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="12"/>
+        <v>PaymentModeInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="13"/>
+        <v>public class PaymentModeInfoEditFormFactoryBasic : IPaymentModeInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PaymentModeInfo &gt;(); } }</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;IPaymentModeInfoEditFormFactory&gt;(new PaymentModeInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.PaymentModeInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="8"/>
+        <v>IProfessionLicenseInfoEditFormFactory</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface IProfessionLicenseInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="10"/>
+        <v>ProfessionLicenseInfo_Editor</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="11"/>
+        <v>public class ProfessionLicenseInfo_Editor : GenericTypeEditor&lt;ProfessionLicenseInfo&gt; { private IProfessionLicenseInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IProfessionLicenseInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="12"/>
+        <v>ProfessionLicenseInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="13"/>
+        <v>public class ProfessionLicenseInfoEditFormFactoryBasic : IProfessionLicenseInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;ProfessionLicenseInfo &gt;(); } }</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;IProfessionLicenseInfoEditFormFactory&gt;(new ProfessionLicenseInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.ProfessionLicenseInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="8"/>
+        <v>ISharesAcquisitionInfoEditFormFactory</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface ISharesAcquisitionInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="10"/>
+        <v>SharesAcquisitionInfo_Editor</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="11"/>
+        <v>public class SharesAcquisitionInfo_Editor : GenericTypeEditor&lt;SharesAcquisitionInfo&gt; { private ISharesAcquisitionInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;ISharesAcquisitionInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="12"/>
+        <v>SharesAcquisitionInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="13"/>
+        <v>public class SharesAcquisitionInfoEditFormFactoryBasic : ISharesAcquisitionInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;SharesAcquisitionInfo &gt;(); } }</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;ISharesAcquisitionInfoEditFormFactory&gt;(new SharesAcquisitionInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.SharesAcquisitionInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="8"/>
+        <v>IBankAccountInfoEditFormFactory</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface IBankAccountInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="10"/>
+        <v>BankAccountInfo_Editor</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="11"/>
+        <v>public class BankAccountInfo_Editor : GenericTypeEditor&lt;BankAccountInfo&gt; { private IBankAccountInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IBankAccountInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="12"/>
+        <v>BankAccountInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="13"/>
+        <v>public class BankAccountInfoEditFormFactoryBasic : IBankAccountInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;BankAccountInfo &gt;(); } }</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;IBankAccountInfoEditFormFactory&gt;(new BankAccountInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.BankAccountInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="8"/>
+        <v>IProfessionLicensingBodyInfoEditFormFactory</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface IProfessionLicensingBodyInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="10"/>
+        <v>ProfessionLicensingBodyInfo_Editor</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="11"/>
+        <v>public class ProfessionLicensingBodyInfo_Editor : GenericTypeEditor&lt;ProfessionLicensingBodyInfo&gt; { private IProfessionLicensingBodyInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IProfessionLicensingBodyInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="12"/>
+        <v>ProfessionLicensingBodyInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="13"/>
+        <v>public class ProfessionLicensingBodyInfoEditFormFactoryBasic : IProfessionLicensingBodyInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;ProfessionLicensingBodyInfo &gt;(); } }</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;IProfessionLicensingBodyInfoEditFormFactory&gt;(new ProfessionLicensingBodyInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.ProfessionLicensingBodyInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="8"/>
+        <v>IPublicationInfoEditFormFactory</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface IPublicationInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="10"/>
+        <v>PublicationInfo_Editor</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="11"/>
+        <v>public class PublicationInfo_Editor : GenericTypeEditor&lt;PublicationInfo&gt; { private IPublicationInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IPublicationInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="12"/>
+        <v>PublicationInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="13"/>
+        <v>public class PublicationInfoEditFormFactoryBasic : IPublicationInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PublicationInfo &gt;(); } }</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;IPublicationInfoEditFormFactory&gt;(new PublicationInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.PublicationInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="8"/>
+        <v>IPublishingHouseInfoEditFormFactory</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface IPublishingHouseInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="10"/>
+        <v>PublishingHouseInfo_Editor</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="11"/>
+        <v>public class PublishingHouseInfo_Editor : GenericTypeEditor&lt;PublishingHouseInfo&gt; { private IPublishingHouseInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IPublishingHouseInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="12"/>
+        <v>PublishingHouseInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="13"/>
+        <v>public class PublishingHouseInfoEditFormFactoryBasic : IPublishingHouseInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;PublishingHouseInfo &gt;(); } }</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;IPublishingHouseInfoEditFormFactory&gt;(new PublishingHouseInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.PublishingHouseInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="8"/>
+        <v>IUniversityOrCollegeInfoEditFormFactory</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="9"/>
+        <v>public interface IUniversityOrCollegeInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="10"/>
+        <v>UniversityOrCollegeInfo_Editor</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="11"/>
+        <v>public class UniversityOrCollegeInfo_Editor : GenericTypeEditor&lt;UniversityOrCollegeInfo&gt; { private IUniversityOrCollegeInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IUniversityOrCollegeInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="12"/>
+        <v>UniversityOrCollegeInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="13"/>
+        <v>public class UniversityOrCollegeInfoEditFormFactoryBasic : IUniversityOrCollegeInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;UniversityOrCollegeInfo &gt;(); } }</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="14"/>
+        <v>cont.RegisterInstance&lt;IUniversityOrCollegeInfoEditFormFactory&gt;(new UniversityOrCollegeInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="15"/>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.UniversityOrCollegeInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" ref="B51" si="16">"I"&amp; TRIM(A51) &amp; "EditFormFactory"</f>
+        <v>IFinancialOversightAuthorityInfoEditFormFactory</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" ref="C51" si="17">"public interface I"&amp; TRIM(A51) &amp; "EditFormFactory : ITypeEditorFormFactoryBase { }"</f>
+        <v>public interface IFinancialOversightAuthorityInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" ref="D51" si="18">A51&amp; "_Editor"</f>
+        <v>FinancialOversightAuthorityInfo_Editor</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" ref="E51" si="19">"public class " &amp; D51 &amp; " : GenericTypeEditor&lt;"&amp;A51&amp;"&gt; { private " &amp; B51 &amp; " _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;" &amp;B51 &amp; "&gt;(); return _fact; } }  }"</f>
+        <v>public class FinancialOversightAuthorityInfo_Editor : GenericTypeEditor&lt;FinancialOversightAuthorityInfo&gt; { private IFinancialOversightAuthorityInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IFinancialOversightAuthorityInfoEditFormFactory&gt;(); return _fact; } }  }</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" ref="F51" si="20">A51&amp; "EditFormFactoryBasic"</f>
+        <v>FinancialOversightAuthorityInfoEditFormFactoryBasic</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" ref="G51" si="21">"public class " &amp;F51&amp; " : " &amp; B51 &amp; " { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;" &amp;A51&amp; " &gt;(); } }"</f>
+        <v>public class FinancialOversightAuthorityInfoEditFormFactoryBasic : IFinancialOversightAuthorityInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;FinancialOversightAuthorityInfo &gt;(); } }</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" ref="H51" si="22">"cont.RegisterInstance&lt;" &amp; B51 &amp; "&gt;(new " &amp; F51 &amp; "(), new ContainerControlledLifetimeManager());"</f>
+        <v>cont.RegisterInstance&lt;IFinancialOversightAuthorityInfoEditFormFactory&gt;(new FinancialOversightAuthorityInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" ref="I51" si="23">"[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors." &amp;D51 &amp; "), typeof(System.Drawing.Design.UITypeEditor))]"</f>
+        <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.FinancialOversightAuthorityInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BGU.DRPL.SignificantOwnership/Codegen/BGU_xsd_outil16.xlsx
+++ b/BGU.DRPL.SignificantOwnership/Codegen/BGU_xsd_outil16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="TypeEditors" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="79">
   <si>
     <t>ClassName</t>
   </si>
@@ -40,9 +41,6 @@
     <t>BGU.DRPL.SignificantOwnership.Core.Questionnaires</t>
   </si>
   <si>
-    <t>BGU.DRPL.SignificantOwnership.Core.Spares.Data</t>
-  </si>
-  <si>
     <t>BGU.DRPL.SignificantOwnership.Core.Spares.Dict</t>
   </si>
   <si>
@@ -233,6 +231,39 @@
   </si>
   <si>
     <t>FinancialOversightAuthorityInfo</t>
+  </si>
+  <si>
+    <t>RegLicAppx12HeadCandidateAppl</t>
+  </si>
+  <si>
+    <t>RegLicAppx3MemberCandidateAppl</t>
+  </si>
+  <si>
+    <t>RegLicAppx4OwnershipAcqRequestPP</t>
+  </si>
+  <si>
+    <t>RegLicAppx17EquityChangeTable</t>
+  </si>
+  <si>
+    <t>RegLicAppx2OwnershipAcqRequestLP</t>
+  </si>
+  <si>
+    <t>RegLicAppx6EquityFormationTable</t>
+  </si>
+  <si>
+    <t>RegLicAppx9BankingLicenseAppl</t>
+  </si>
+  <si>
+    <t>Appx3OwnershipStructPP</t>
+  </si>
+  <si>
+    <t>TopLevel</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -561,322 +592,490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="str">
+        <f>TRIM(C2) &amp; "." &amp; TRIM(B2)</f>
+        <v>BGU.DRPL.SignificantOwnership.Core.Questionnaires.RegLicAppx7ShareAcqIntent</v>
+      </c>
+      <c r="E2" t="str">
+        <f>$E$1&amp;D2 &amp; " &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt"</f>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Questionnaires.RegLicAppx7ShareAcqIntent &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D19" si="0">TRIM(C3) &amp; "." &amp; TRIM(B13)</f>
+        <v>BGU.DRPL.SignificantOwnership.Core.Questionnaires.CommonOwnershipInfo</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E19" si="1">$E$1&amp;D3 &amp; " &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt"</f>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Questionnaires.CommonOwnershipInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>BGU.DRPL.SignificantOwnership.Core.Questionnaires.CouncilBodyInfo</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Questionnaires.CouncilBodyInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>BGU.DRPL.SignificantOwnership.Core.Questionnaires.DelegatedVoteInfo</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Questionnaires.DelegatedVoteInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>BGU.DRPL.SignificantOwnership.Core.Questionnaires.ImplicitOwnershipInfo</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Questionnaires.ImplicitOwnershipInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>BGU.DRPL.SignificantOwnership.Core.Questionnaires.LegalPersonShareInfo</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Questionnaires.LegalPersonShareInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>BGU.DRPL.SignificantOwnership.Core.Questionnaires.OwnershipSummaryInfo</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Questionnaires.OwnershipSummaryInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>BGU.DRPL.SignificantOwnership.Core.Questionnaires.OwnershipVotesInfo</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Questionnaires.OwnershipVotesInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>BGU.DRPL.SignificantOwnership.Core.Questionnaires.PhysicalPersonShareInfo</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Questionnaires.PhysicalPersonShareInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>BGU.DRPL.SignificantOwnership.Core.Questionnaires.SignatoryInfo</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Questionnaires.SignatoryInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>BGU.DRPL.SignificantOwnership.Core.Questionnaires.TotalOwnershipDetailsInfo</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Questionnaires.TotalOwnershipDetailsInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="str">
-        <f>TRIM(B2) &amp; "." &amp; TRIM(A2)</f>
-        <v>BGU.DRPL.SignificantOwnership.Core.Questionnaires.Appx2OwnershipStructLP</v>
-      </c>
-      <c r="D2" t="str">
-        <f>$D$1&amp;C2 &amp; " &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt"</f>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Questionnaires.Appx2OwnershipStructLP &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Dict.BankInfo</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Dict.BankInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C19" si="0">TRIM(B3) &amp; "." &amp; TRIM(A3)</f>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Data.CommonOwnershipInfo</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D19" si="1">$D$1&amp;C3 &amp; " &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt"</f>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Data.CommonOwnershipInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Dict.CountryInfo</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Dict.CountryInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Data.CouncilBodyInfo</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Data.CouncilBodyInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Dict.LegalPersonInfo</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Dict.LegalPersonInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Data.DelegatedVoteInfo</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Data.DelegatedVoteInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Dict.LocationInfo</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Dict.LocationInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Data.ImplicitOwnershipInfo</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="1"/>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Data.ImplicitOwnershipInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Dict.PassportIssuingAuthorityInfo</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Dict.PassportIssuingAuthorityInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Data.LegalPersonShareInfo</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Data.LegalPersonShareInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Dict.PhysicalPersonInfo</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Dict.PhysicalPersonInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Data.OwnershipSummaryInfo</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Data.OwnershipSummaryInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Dict.RegistrarAuthority</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Dict.RegistrarAuthority &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C20" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Data.OwnershipVotesInfo</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Data.OwnershipVotesInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Data.PhysicalPersonShareInfo</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Data.PhysicalPersonShareInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Data.SignatoryInfo</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Data.SignatoryInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C23" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Data.TotalOwnershipDetailsInfo</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Data.TotalOwnershipDetailsInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Dict.BankInfo</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Dict.BankInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Dict.CountryInfo</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Dict.CountryInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Dict.LegalPersonInfo</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="1"/>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Dict.LegalPersonInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Dict.LocationInfo</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Dict.LocationInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Dict.PassportIssuingAuthorityInfo</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Dict.PassportIssuingAuthorityInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Dict.PhysicalPersonInfo</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Dict.PhysicalPersonInfo &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>BGU.DRPL.SignificantOwnership.Core.Spares.Dict.RegistrarAuthority</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>"C:\Program Files (x86)\Microsoft SDKs\Windows\v7.0A\Bin\NETFX 4.0 Tools\x64\xsd.exe" D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\BGU.DRPL.SignificantOwnership.Core\bin\Debug\BGU.DRPL.SignificantOwnership.Core.dll /outputdir:D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs /type:BGU.DRPL.SignificantOwnership.Core.Spares.Dict.RegistrarAuthority &gt;&gt; D:\home\vmdrot\HaErez\BGU\Var\SignificantOwnership\XMLs\xsd.log.txt</v>
+      <c r="C29" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -898,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -909,135 +1108,135 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1049,9 +1248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1094,7 +1291,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B32" si="0">"I"&amp; TRIM(A2) &amp; "EditFormFactory"</f>
@@ -1131,7 +1328,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -1168,7 +1365,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -1205,7 +1402,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -1242,7 +1439,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -1279,7 +1476,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -1316,7 +1513,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -1353,7 +1550,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -1390,7 +1587,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -1427,7 +1624,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -1464,7 +1661,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -1501,7 +1698,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -1538,7 +1735,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -1575,7 +1772,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -1612,7 +1809,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -1649,7 +1846,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -1686,7 +1883,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -1723,7 +1920,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -1760,7 +1957,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -1797,7 +1994,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -1834,7 +2031,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -1871,7 +2068,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -1908,7 +2105,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -1945,7 +2142,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -1982,7 +2179,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -2019,7 +2216,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -2056,7 +2253,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -2093,7 +2290,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -2130,7 +2327,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -2167,7 +2364,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -2204,7 +2401,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -2241,7 +2438,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" ref="B33:B50" si="8">"I"&amp; TRIM(A33) &amp; "EditFormFactory"</f>
@@ -2278,7 +2475,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="8"/>
@@ -2315,7 +2512,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="8"/>
@@ -2352,7 +2549,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="8"/>
@@ -2389,7 +2586,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="8"/>
@@ -2426,7 +2623,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="8"/>
@@ -2463,7 +2660,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="8"/>
@@ -2500,7 +2697,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="8"/>
@@ -2537,7 +2734,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="8"/>
@@ -2574,7 +2771,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="8"/>
@@ -2611,7 +2808,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="8"/>
@@ -2648,7 +2845,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="8"/>
@@ -2685,7 +2882,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="8"/>
@@ -2722,7 +2919,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="8"/>
@@ -2759,7 +2956,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="8"/>
@@ -2796,7 +2993,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="8"/>
@@ -2833,7 +3030,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="8"/>
@@ -2870,7 +3067,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="8"/>
@@ -2907,38 +3104,38 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" ref="B51" si="16">"I"&amp; TRIM(A51) &amp; "EditFormFactory"</f>
+        <f>"I"&amp; TRIM(A51) &amp; "EditFormFactory"</f>
         <v>IFinancialOversightAuthorityInfoEditFormFactory</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" ref="C51" si="17">"public interface I"&amp; TRIM(A51) &amp; "EditFormFactory : ITypeEditorFormFactoryBase { }"</f>
+        <f>"public interface I"&amp; TRIM(A51) &amp; "EditFormFactory : ITypeEditorFormFactoryBase { }"</f>
         <v>public interface IFinancialOversightAuthorityInfoEditFormFactory : ITypeEditorFormFactoryBase { }</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" ref="D51" si="18">A51&amp; "_Editor"</f>
+        <f>A51&amp; "_Editor"</f>
         <v>FinancialOversightAuthorityInfo_Editor</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" ref="E51" si="19">"public class " &amp; D51 &amp; " : GenericTypeEditor&lt;"&amp;A51&amp;"&gt; { private " &amp; B51 &amp; " _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;" &amp;B51 &amp; "&gt;(); return _fact; } }  }"</f>
+        <f>"public class " &amp; D51 &amp; " : GenericTypeEditor&lt;"&amp;A51&amp;"&gt; { private " &amp; B51 &amp; " _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;" &amp;B51 &amp; "&gt;(); return _fact; } }  }"</f>
         <v>public class FinancialOversightAuthorityInfo_Editor : GenericTypeEditor&lt;FinancialOversightAuthorityInfo&gt; { private IFinancialOversightAuthorityInfoEditFormFactory _fact; protected override ITypeEditorFormFactoryBase TypeEditorFormFactory { get { if (_fact == null) _fact = TypeEditorsDispatcher.Container.Resolve&lt;IFinancialOversightAuthorityInfoEditFormFactory&gt;(); return _fact; } }  }</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" ref="F51" si="20">A51&amp; "EditFormFactoryBasic"</f>
+        <f>A51&amp; "EditFormFactoryBasic"</f>
         <v>FinancialOversightAuthorityInfoEditFormFactoryBasic</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" ref="G51" si="21">"public class " &amp;F51&amp; " : " &amp; B51 &amp; " { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;" &amp;A51&amp; " &gt;(); } }"</f>
+        <f>"public class " &amp;F51&amp; " : " &amp; B51 &amp; " { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;" &amp;A51&amp; " &gt;(); } }"</f>
         <v>public class FinancialOversightAuthorityInfoEditFormFactoryBasic : IFinancialOversightAuthorityInfoEditFormFactory { public System.Windows.Forms.Form SpawnInstance() { return new DummyForm&lt;FinancialOversightAuthorityInfo &gt;(); } }</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" ref="H51" si="22">"cont.RegisterInstance&lt;" &amp; B51 &amp; "&gt;(new " &amp; F51 &amp; "(), new ContainerControlledLifetimeManager());"</f>
+        <f>"cont.RegisterInstance&lt;" &amp; B51 &amp; "&gt;(new " &amp; F51 &amp; "(), new ContainerControlledLifetimeManager());"</f>
         <v>cont.RegisterInstance&lt;IFinancialOversightAuthorityInfoEditFormFactory&gt;(new FinancialOversightAuthorityInfoEditFormFactoryBasic(), new ContainerControlledLifetimeManager());</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" ref="I51" si="23">"[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors." &amp;D51 &amp; "), typeof(System.Drawing.Design.UITypeEditor))]"</f>
+        <f>"[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors." &amp;D51 &amp; "), typeof(System.Drawing.Design.UITypeEditor))]"</f>
         <v>[System.ComponentModel.Editor(typeof(BGU.DRPL.SignificantOwnership.Core.TypeEditors.FinancialOversightAuthorityInfo_Editor), typeof(System.Drawing.Design.UITypeEditor))]</v>
       </c>
     </row>

--- a/BGU.DRPL.SignificantOwnership/Codegen/BGU_xsd_outil16.xlsx
+++ b/BGU.DRPL.SignificantOwnership/Codegen/BGU_xsd_outil16.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\Codegen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Forms" sheetId="2" r:id="rId2"/>
     <sheet name="TypeEditors" sheetId="3" r:id="rId3"/>
+    <sheet name="XSDTypeTransls" sheetId="4" r:id="rId4"/>
+    <sheet name="Enums" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="228">
   <si>
     <t>ClassName</t>
   </si>
@@ -264,6 +260,453 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:string </t>
+  </si>
+  <si>
+    <t>xs:hexBinary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:base64Binary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:anyURI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:QName </t>
+  </si>
+  <si>
+    <t>xs:NOTATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:normalizedString </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:token </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:language </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:NMTOKEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:NCName </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:IDREF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:ENTITY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:integer </t>
+  </si>
+  <si>
+    <t>xs:nonPositiveInteger</t>
+  </si>
+  <si>
+    <t>xs:negativeInteger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:nonNegativeInteger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:positiveInteger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:long </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:int </t>
+  </si>
+  <si>
+    <t>xs:short</t>
+  </si>
+  <si>
+    <t>xs:byte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:unsignedLong </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:unsignedInt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:unsignedShort </t>
+  </si>
+  <si>
+    <t>xs:unsignedByte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:float </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:double </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:dateTime </t>
+  </si>
+  <si>
+    <t>xs:date</t>
+  </si>
+  <si>
+    <t>xs:gYearMonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:gYear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:time </t>
+  </si>
+  <si>
+    <t>xs:gDay</t>
+  </si>
+  <si>
+    <t>xs:gMonth</t>
+  </si>
+  <si>
+    <t>xs:gMonthDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xs:duration </t>
+  </si>
+  <si>
+    <t>xs:NMTOKENS</t>
+  </si>
+  <si>
+    <t>xs:IDREFS</t>
+  </si>
+  <si>
+    <t>xs:ENTITIES</t>
+  </si>
+  <si>
+    <t>текст</t>
+  </si>
+  <si>
+    <t>гексадвоїчний</t>
+  </si>
+  <si>
+    <t>двоїчний у 64-му кодуванні</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>кваліфіковане ім'я</t>
+  </si>
+  <si>
+    <t>нотація</t>
+  </si>
+  <si>
+    <t>нормалізований текст</t>
+  </si>
+  <si>
+    <t>токен</t>
+  </si>
+  <si>
+    <t>мова</t>
+  </si>
+  <si>
+    <t>ім'я-токен</t>
+  </si>
+  <si>
+    <t>ім'я</t>
+  </si>
+  <si>
+    <t>ідентифікатор</t>
+  </si>
+  <si>
+    <t>посилання на ідентифікатор</t>
+  </si>
+  <si>
+    <t>сутність</t>
+  </si>
+  <si>
+    <t>будь-який URL</t>
+  </si>
+  <si>
+    <t>ціле число</t>
+  </si>
+  <si>
+    <t>від'ємне ціле число</t>
+  </si>
+  <si>
+    <t>недодатнє ціле число</t>
+  </si>
+  <si>
+    <t>невід'ємне ціле число</t>
+  </si>
+  <si>
+    <t>додатнє ціле число</t>
+  </si>
+  <si>
+    <t>довге ціле число</t>
+  </si>
+  <si>
+    <t>коротке ціле число</t>
+  </si>
+  <si>
+    <t>байт</t>
+  </si>
+  <si>
+    <t>беззнакове довге ціле</t>
+  </si>
+  <si>
+    <t>беззнакове ціле</t>
+  </si>
+  <si>
+    <t>беззнакове коротке ціле</t>
+  </si>
+  <si>
+    <t>беззнаковий байт</t>
+  </si>
+  <si>
+    <t>число з плаваючою комою</t>
+  </si>
+  <si>
+    <t>подвійне з плаваючою комою</t>
+  </si>
+  <si>
+    <t>дата і час</t>
+  </si>
+  <si>
+    <t>дата</t>
+  </si>
+  <si>
+    <t>рік і місяць</t>
+  </si>
+  <si>
+    <t>рік</t>
+  </si>
+  <si>
+    <t>час</t>
+  </si>
+  <si>
+    <t>день</t>
+  </si>
+  <si>
+    <t>місяць</t>
+  </si>
+  <si>
+    <t>місяць і день</t>
+  </si>
+  <si>
+    <t>тривалість (по часу)</t>
+  </si>
+  <si>
+    <t>масив імен-токенів</t>
+  </si>
+  <si>
+    <t>масив посилань на ідентифікатори</t>
+  </si>
+  <si>
+    <t>масив сутностей</t>
+  </si>
+  <si>
+    <t>OrigTypeNm</t>
+  </si>
+  <si>
+    <t>UkrTypeNm</t>
+  </si>
+  <si>
+    <t>xs:boolean</t>
+  </si>
+  <si>
+    <t>xs:decimal</t>
+  </si>
+  <si>
+    <t>логічний тип(так/ні)</t>
+  </si>
+  <si>
+    <t>десяткове число, у т.ч. дрібне</t>
+  </si>
+  <si>
+    <t>EnumTypeName</t>
+  </si>
+  <si>
+    <t>FinancialServicesType</t>
+  </si>
+  <si>
+    <t>BankingActivityType</t>
+  </si>
+  <si>
+    <t>EnumValue</t>
+  </si>
+  <si>
+    <t>EnumKey</t>
+  </si>
+  <si>
+    <t>EnumDescription</t>
+  </si>
+  <si>
+    <t>п.1 випуск платіжних документів, платіжних карток, дорожніх чеків та/або їх обслуговування, кліринг, інші форми забезпечення розрахунків (ст.4 з-ну Про фінпослуги)</t>
+  </si>
+  <si>
+    <t>п.2 довірче управління фінансовими активами (ст.4 з-ну Про фінпослуги)</t>
+  </si>
+  <si>
+    <t>п.3 діяльність з обміну валют (ст.4 з-ну Про фінпослуги)</t>
+  </si>
+  <si>
+    <t>п.4 залучення фінансових активів із зобов'язанням щодо наступного їх повернення (ст.4 з-ну Про фінпослуги)</t>
+  </si>
+  <si>
+    <t>п.5 фінансовий лізинг (ст.4 з-ну Про фінпослуги)</t>
+  </si>
+  <si>
+    <t>п.6 надання коштів у позику, в тому числі і на умовах фінансового кредиту (ст.4 з-ну Про фінпослуги)</t>
+  </si>
+  <si>
+    <t>п.7 надання гарантій та поручительств (ст.4 з-ну Про фінпослуги)</t>
+  </si>
+  <si>
+    <t>п.8 переказ коштів (ст.4 з-ну Про фінпослуги)</t>
+  </si>
+  <si>
+    <t>п.9 послуги у сфері страхування та у системі накопичувального пенсійного забезпечення (ст.4 з-ну Про фінпослуги)</t>
+  </si>
+  <si>
+    <t>п.10 професійна діяльність на ринку цінних паперів, що підлягає ліцензуванню (ст.4 з-ну Про фінпослуги)</t>
+  </si>
+  <si>
+    <t>п.11 факторинг (ст.4 з-ну Про фінпослуги)</t>
+  </si>
+  <si>
+    <t>п.11.1 адміністрування фінансових активів для придбання товарів у групах (ст.4 з-ну Про фінпослуги)</t>
+  </si>
+  <si>
+    <t>п.13 операції з іпотечними активами з метою емісії іпотечних цінних паперів (ст.4 з-ну Про фінпослуги)</t>
+  </si>
+  <si>
+    <t>п.12 управління майном для фінансування об'єктів будівництва та/або здійснення операцій з нерухомістю відповідно до Закону України Про фінансово-кредитні механізми і управління майном при будівництві житла та операціях з нерухомістю (ст.4 з-ну Про фінпослуги)</t>
+  </si>
+  <si>
+    <t>п.14 банківські та інші фінансові послуги, що надаються відповідно до Закону України Про банки і банківську діяльність (ст.4 з-ну Про фінпослуги)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Не вказано</t>
+  </si>
+  <si>
+    <t>PayDocsIssuance</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>CurrencyExchange</t>
+  </si>
+  <si>
+    <t>FinanceAssetsLiabilities</t>
+  </si>
+  <si>
+    <t>FinancialLeasing</t>
+  </si>
+  <si>
+    <t>Lending</t>
+  </si>
+  <si>
+    <t>Guarantees</t>
+  </si>
+  <si>
+    <t>FundsTransfer</t>
+  </si>
+  <si>
+    <t>InsuranceAndPensionSavings</t>
+  </si>
+  <si>
+    <t>StockExchangeActivities</t>
+  </si>
+  <si>
+    <t>Factoring</t>
+  </si>
+  <si>
+    <t>FinAssetsAdministeringGroupsPurchase</t>
+  </si>
+  <si>
+    <t>ConstructionAssetsManagement</t>
+  </si>
+  <si>
+    <t>MortgageSecuritiesMngtIssue</t>
+  </si>
+  <si>
+    <t>OtherFinBankServices</t>
+  </si>
+  <si>
+    <t>CodeP1</t>
+  </si>
+  <si>
+    <t>DescrAttr</t>
+  </si>
+  <si>
+    <t>п.1 залучення у вклади (депозити) коштів та банківських металів від необмеженого кола юридичних і фізичних осіб (ч.1-а ст.47 З-ну Про БіБД)</t>
+  </si>
+  <si>
+    <t>п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)</t>
+  </si>
+  <si>
+    <t>п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)</t>
+  </si>
+  <si>
+    <t>п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)</t>
+  </si>
+  <si>
+    <t>п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)</t>
+  </si>
+  <si>
+    <t>п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)</t>
+  </si>
+  <si>
+    <t>п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)</t>
+  </si>
+  <si>
+    <t>п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)</t>
+  </si>
+  <si>
+    <t>п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)</t>
+  </si>
+  <si>
+    <t>п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)</t>
+  </si>
+  <si>
+    <t>DepositsTaking</t>
+  </si>
+  <si>
+    <t>AccountsMgmt</t>
+  </si>
+  <si>
+    <t>DepositedFundsPlacement</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>ProprietarySecuritiesIssue</t>
+  </si>
+  <si>
+    <t>Lotteries</t>
+  </si>
+  <si>
+    <t>CashCollectionTransportation</t>
+  </si>
+  <si>
+    <t>SafeCustody</t>
+  </si>
+  <si>
+    <t>SecuritiesCustody</t>
+  </si>
+  <si>
+    <t>ConsultancyOnBankFinServices</t>
   </si>
 </sst>
 </file>
@@ -309,12 +752,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -584,7 +1028,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -594,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,4 +3586,1522 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="str">
+        <f>TRIM(A2)</f>
+        <v>xs:string</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"case " &amp; CHAR(34)&amp; B2 &amp; CHAR(34) &amp;": return " &amp; CHAR(34) &amp;C2 &amp; CHAR(34) &amp; ";"</f>
+        <v>case "xs:string": return "текст";</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B45" si="0">TRIM(A3)</f>
+        <v>xs:hexBinary</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D47" si="1">"case " &amp; CHAR(34)&amp; B3 &amp; CHAR(34) &amp;": return " &amp; CHAR(34) &amp;C3 &amp; CHAR(34) &amp; ";"</f>
+        <v>case "xs:hexBinary": return "гексадвоїчний";</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:base64Binary</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:base64Binary": return "двоїчний у 64-му кодуванні";</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:anyURI</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:anyURI": return "URL";</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:QName</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:QName": return "кваліфіковане ім'я";</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:NOTATION</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:NOTATION": return "нотація";</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:normalizedString</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:normalizedString": return "нормалізований текст";</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:token</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:token": return "токен";</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:language</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:language": return "мова";</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:NMTOKEN</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:NMTOKEN": return "ім'я-токен";</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:Name</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:Name": return "ім'я";</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:NCName</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:NCName": return "ім'я";</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:ID</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:ID": return "ідентифікатор";</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:IDREF</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:IDREF": return "посилання на ідентифікатор";</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:ENTITY</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:ENTITY": return "сутність";</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:QName</v>
+      </c>
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:QName": return "кваліфіковане ім'я";</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:anyURI</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:anyURI": return "будь-який URL";</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:integer</v>
+      </c>
+      <c r="C19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:integer": return "ціле число";</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:nonPositiveInteger</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:nonPositiveInteger": return "недодатнє ціле число";</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:negativeInteger</v>
+      </c>
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:negativeInteger": return "від'ємне ціле число";</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:nonNegativeInteger</v>
+      </c>
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:nonNegativeInteger": return "невід'ємне ціле число";</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:positiveInteger</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:positiveInteger": return "додатнє ціле число";</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:long</v>
+      </c>
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:long": return "довге ціле число";</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:int</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:int": return "ціле число";</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:short</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:short": return "коротке ціле число";</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:byte</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:byte": return "байт";</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:unsignedLong</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:unsignedLong": return "беззнакове довге ціле";</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:unsignedInt</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:unsignedInt": return "беззнакове ціле";</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:unsignedShort</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:unsignedShort": return "беззнакове коротке ціле";</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:unsignedByte</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:unsignedByte": return "беззнаковий байт";</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:float</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:float": return "число з плаваючою комою";</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:double</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:double": return "подвійне з плаваючою комою";</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:dateTime</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:dateTime": return "дата і час";</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:date</v>
+      </c>
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:date": return "дата";</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:gYearMonth</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:gYearMonth": return "рік і місяць";</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:gYear</v>
+      </c>
+      <c r="C37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:gYear": return "рік";</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:time</v>
+      </c>
+      <c r="C38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:time": return "час";</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:gDay</v>
+      </c>
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:gDay": return "день";</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:gMonth</v>
+      </c>
+      <c r="C40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:gMonth": return "місяць";</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:gMonthDay</v>
+      </c>
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:gMonthDay": return "місяць і день";</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:duration</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:duration": return "тривалість (по часу)";</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:NMTOKENS</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:NMTOKENS": return "масив імен-токенів";</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:IDREFS</v>
+      </c>
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:IDREFS": return "масив посилань на ідентифікатори";</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>xs:ENTITIES</v>
+      </c>
+      <c r="C45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:ENTITIES": return "масив сутностей";</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:boolean": return "логічний тип(так/ні)";</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>case "xs:decimal": return "десяткове число, у т.ч. дрібне";</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="str">
+        <f>C2&amp; " = " &amp;B2</f>
+        <v>None = 0</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"[Description(" &amp; CHAR(34) &amp; D2&amp; CHAR(34) &amp; ")]"</f>
+        <v>[Description("Не вказано")]</v>
+      </c>
+      <c r="G2" t="str">
+        <f>F2&amp;E2 &amp;","</f>
+        <v>[Description("Не вказано")]None = 0,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3">
+        <f>B2+1</f>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E17" si="0">C3&amp; " = " &amp;B3</f>
+        <v>PayDocsIssuance = 1</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F17" si="1">"[Description(" &amp; CHAR(34) &amp; D3&amp; CHAR(34) &amp; ")]"</f>
+        <v>[Description("п.1 випуск платіжних документів, платіжних карток, дорожніх чеків та/або їх обслуговування, кліринг, інші форми забезпечення розрахунків (ст.4 з-ну Про фінпослуги)")]</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G17" si="2">F3&amp;E3 &amp;","</f>
+        <v>[Description("п.1 випуск платіжних документів, платіжних карток, дорожніх чеків та/або їх обслуговування, кліринг, інші форми забезпечення розрахунків (ст.4 з-ну Про фінпослуги)")]PayDocsIssuance = 1,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B28" si="3">B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Trust = 2</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>[Description("п.2 довірче управління фінансовими активами (ст.4 з-ну Про фінпослуги)")]</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>[Description("п.2 довірче управління фінансовими активами (ст.4 з-ну Про фінпослуги)")]Trust = 2,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>CurrencyExchange = 3</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>[Description("п.3 діяльність з обміну валют (ст.4 з-ну Про фінпослуги)")]</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>[Description("п.3 діяльність з обміну валют (ст.4 з-ну Про фінпослуги)")]CurrencyExchange = 3,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>FinanceAssetsLiabilities = 4</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>[Description("п.4 залучення фінансових активів із зобов'язанням щодо наступного їх повернення (ст.4 з-ну Про фінпослуги)")]</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>[Description("п.4 залучення фінансових активів із зобов'язанням щодо наступного їх повернення (ст.4 з-ну Про фінпослуги)")]FinanceAssetsLiabilities = 4,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>FinancialLeasing = 5</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>[Description("п.5 фінансовий лізинг (ст.4 з-ну Про фінпослуги)")]</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>[Description("п.5 фінансовий лізинг (ст.4 з-ну Про фінпослуги)")]FinancialLeasing = 5,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Lending = 6</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>[Description("п.6 надання коштів у позику, в тому числі і на умовах фінансового кредиту (ст.4 з-ну Про фінпослуги)")]</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>[Description("п.6 надання коштів у позику, в тому числі і на умовах фінансового кредиту (ст.4 з-ну Про фінпослуги)")]Lending = 6,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Guarantees = 7</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>[Description("п.7 надання гарантій та поручительств (ст.4 з-ну Про фінпослуги)")]</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>[Description("п.7 надання гарантій та поручительств (ст.4 з-ну Про фінпослуги)")]Guarantees = 7,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>FundsTransfer = 8</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>[Description("п.8 переказ коштів (ст.4 з-ну Про фінпослуги)")]</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>[Description("п.8 переказ коштів (ст.4 з-ну Про фінпослуги)")]FundsTransfer = 8,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>InsuranceAndPensionSavings = 9</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>[Description("п.9 послуги у сфері страхування та у системі накопичувального пенсійного забезпечення (ст.4 з-ну Про фінпослуги)")]</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>[Description("п.9 послуги у сфері страхування та у системі накопичувального пенсійного забезпечення (ст.4 з-ну Про фінпослуги)")]InsuranceAndPensionSavings = 9,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>StockExchangeActivities = 10</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>[Description("п.10 професійна діяльність на ринку цінних паперів, що підлягає ліцензуванню (ст.4 з-ну Про фінпослуги)")]</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>[Description("п.10 професійна діяльність на ринку цінних паперів, що підлягає ліцензуванню (ст.4 з-ну Про фінпослуги)")]StockExchangeActivities = 10,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Factoring = 11</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>[Description("п.11 факторинг (ст.4 з-ну Про фінпослуги)")]</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>[Description("п.11 факторинг (ст.4 з-ну Про фінпослуги)")]Factoring = 11,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>FinAssetsAdministeringGroupsPurchase = 12</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>[Description("п.11.1 адміністрування фінансових активів для придбання товарів у групах (ст.4 з-ну Про фінпослуги)")]</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>[Description("п.11.1 адміністрування фінансових активів для придбання товарів у групах (ст.4 з-ну Про фінпослуги)")]FinAssetsAdministeringGroupsPurchase = 12,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>ConstructionAssetsManagement = 13</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>[Description("п.12 управління майном для фінансування об'єктів будівництва та/або здійснення операцій з нерухомістю відповідно до Закону України Про фінансово-кредитні механізми і управління майном при будівництві житла та операціях з нерухомістю (ст.4 з-ну Про фінпослуги)")]</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>[Description("п.12 управління майном для фінансування об'єктів будівництва та/або здійснення операцій з нерухомістю відповідно до Закону України Про фінансово-кредитні механізми і управління майном при будівництві житла та операціях з нерухомістю (ст.4 з-ну Про фінпослуги)")]ConstructionAssetsManagement = 13,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>MortgageSecuritiesMngtIssue = 14</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>[Description("п.13 операції з іпотечними активами з метою емісії іпотечних цінних паперів (ст.4 з-ну Про фінпослуги)")]</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>[Description("п.13 операції з іпотечними активами з метою емісії іпотечних цінних паперів (ст.4 з-ну Про фінпослуги)")]MortgageSecuritiesMngtIssue = 14,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>OtherFinBankServices = 15</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>[Description("п.14 банківські та інші фінансові послуги, що надаються відповідно до Закону України Про банки і банківську діяльність (ст.4 з-ну Про фінпослуги)")]</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>[Description("п.14 банківські та інші фінансові послуги, що надаються відповідно до Закону України Про банки і банківську діяльність (ст.4 з-ну Про фінпослуги)")]OtherFinBankServices = 15,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" t="str">
+        <f>C18&amp; " = " &amp;B18</f>
+        <v>None = 0</v>
+      </c>
+      <c r="F18" t="str">
+        <f>"[Description(" &amp; CHAR(34) &amp; D18&amp; CHAR(34) &amp; ")]"</f>
+        <v>[Description("Не вказано")]</v>
+      </c>
+      <c r="G18" t="str">
+        <f>F18&amp;E18 &amp;","</f>
+        <v>[Description("Не вказано")]None = 0,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" ref="E19:E28" si="4">C19&amp; " = " &amp;B19</f>
+        <v>DepositsTaking = 1</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" ref="F19:F28" si="5">"[Description(" &amp; CHAR(34) &amp; D19&amp; CHAR(34) &amp; ")]"</f>
+        <v>[Description("п.1 залучення у вклади (депозити) коштів та банківських металів від необмеженого кола юридичних і фізичних осіб (ч.1-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" ref="G19:G28" si="6">F19&amp;E19 &amp;","</f>
+        <v>[Description("п.1 залучення у вклади (депозити) коштів та банківських металів від необмеженого кола юридичних і фізичних осіб (ч.1-а ст.47 З-ну Про БіБД)")]DepositsTaking = 1,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="4"/>
+        <v>AccountsMgmt = 2</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="5"/>
+        <v>[Description("п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="6"/>
+        <v>[Description("п.2 відкриття та ведення поточних (кореспондентських) рахунків клієнтів, у тому числі у банківських металах (ч.1-а ст.47 З-ну Про БіБД)")]AccountsMgmt = 2,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="4"/>
+        <v>DepositedFundsPlacement = 3</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="5"/>
+        <v>[Description("п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="6"/>
+        <v>[Description("п.3 розміщення залучених у вклади (депозити), у тому числі на поточні рахунки, коштів та банківських металів від свого імені, на власних умовах та на власний ризик (ч.1-а ст.47 З-ну Про БіБД)")]DepositedFundsPlacement = 3,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="4"/>
+        <v>Investments = 4</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="5"/>
+        <v>[Description("п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="6"/>
+        <v>[Description("п.1 інвестицій (ч.8-а ст.47 З-ну Про БіБД)")]Investments = 4,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="4"/>
+        <v>ProprietarySecuritiesIssue = 5</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="5"/>
+        <v>[Description("п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="6"/>
+        <v>[Description("п.2 випуску власних цінних паперів (ч.8-а ст.47 З-ну Про БіБД)")]ProprietarySecuritiesIssue = 5,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="4"/>
+        <v>Lotteries = 6</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="5"/>
+        <v>[Description("п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="6"/>
+        <v>[Description("п.3 випуску, розповсюдження та проведення лотерей (ч.8-а ст.47 З-ну Про БіБД)")]Lotteries = 6,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="4"/>
+        <v>SafeCustody = 7</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="5"/>
+        <v>[Description("п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="6"/>
+        <v>[Description("п.4 зберігання цінностей або надання в майновий найм (оренду) індивідуального банківського сейфа (ч.8-а ст.47 З-ну Про БіБД)")]SafeCustody = 7,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" t="str">
+        <f>C26&amp; " = " &amp;B26</f>
+        <v>CashCollectionTransportation = 8</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="5"/>
+        <v>[Description("п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="6"/>
+        <v>[Description("п.5 інкасації коштів та перевезення валютних цінностей (ч.8-а ст.47 З-ну Про БіБД)")]CashCollectionTransportation = 8,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" t="str">
+        <f>C27&amp; " = " &amp;B27</f>
+        <v>SecuritiesCustody = 9</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="5"/>
+        <v>[Description("п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="6"/>
+        <v>[Description("п.6 ведення реєстрів власників іменних цінних паперів (крім власних акцій) (ч.8-а ст.47 З-ну Про БіБД)")]SecuritiesCustody = 9,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="4"/>
+        <v>ConsultancyOnBankFinServices = 10</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="5"/>
+        <v>[Description("п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)")]</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="6"/>
+        <v>[Description("п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)")]ConsultancyOnBankFinServices = 10,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BGU.DRPL.SignificantOwnership/Codegen/BGU_xsd_outil16.xlsx
+++ b/BGU.DRPL.SignificantOwnership/Codegen/BGU_xsd_outil16.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="247">
   <si>
     <t>ClassName</t>
   </si>
@@ -707,6 +707,63 @@
   </si>
   <si>
     <t>ConsultancyOnBankFinServices</t>
+  </si>
+  <si>
+    <t>Контролери банку</t>
+  </si>
+  <si>
+    <t>Особи, які мають істотну участь у банку, та особи, через яких ці особи здійснюють опосередковане володіння істотною участю в банку</t>
+  </si>
+  <si>
+    <t>Керівники банку, керівник служби внутрішнього аудиту, керівники та члени комітетів банку</t>
+  </si>
+  <si>
+    <t>Споріднені та афільовані особи банку, у тому числі учасники банківської групи</t>
+  </si>
+  <si>
+    <t>Особи, які мають істотну участь у споріднених та афільованих особах банку</t>
+  </si>
+  <si>
+    <t>Керівники юридичних осіб та керівники банків, які є спорідненими та афільованими особами банку, керівник служби внутрішнього аудиту, керівники та члени комітетів цих осіб</t>
+  </si>
+  <si>
+    <t>Асоційовані особи фізичних осіб, зазначених у пунктах 1 – 6 частини першої статті 52 Закону</t>
+  </si>
+  <si>
+    <t>Юридичні особи, у яких фізичні особи, зазначені в частині першій статті 52 Закону, є керівниками або власниками істотної участі</t>
+  </si>
+  <si>
+    <t>Будь-яка особа, через яку проводиться операція в інтересах осіб, зазначених у частині першій статті 52 Закону, та на яку здійснюють вплив під час проведення такої операції особи, зазначені в цій частині, через трудові, цивільні та інші відносини</t>
+  </si>
+  <si>
+    <t>BankAssociatedPeronsCode315p</t>
+  </si>
+  <si>
+    <t>BankControllers</t>
+  </si>
+  <si>
+    <t>SignificantOwners</t>
+  </si>
+  <si>
+    <t>BankMgrsEtc</t>
+  </si>
+  <si>
+    <t>Affiliated</t>
+  </si>
+  <si>
+    <t>AffiliatedSignOwners</t>
+  </si>
+  <si>
+    <t>AffiliatedMgrsEtc</t>
+  </si>
+  <si>
+    <t>AssocPersonsArt52pp16</t>
+  </si>
+  <si>
+    <t>Art52MgrsSignOwnersLPs</t>
+  </si>
+  <si>
+    <t>AnyPersonInfluencingArt52</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1085,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4345,10 +4402,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="A1:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5100,6 +5157,240 @@
         <v>[Description("п.7 надання консультаційних та інформаційних послуг щодо банківських та інших фінансових послуг (ч.8-а ст.47 З-ну Про БіБД)")]ConsultancyOnBankFinServices = 10,</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29">
+        <v>521</v>
+      </c>
+      <c r="C29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" ref="E29:E37" si="7">C29&amp; " = " &amp;B29</f>
+        <v>BankControllers = 521</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" ref="F29:F37" si="8">"[Description(" &amp; CHAR(34) &amp; D29&amp; CHAR(34) &amp; ")]"</f>
+        <v>[Description("Контролери банку")]</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" ref="G29:G37" si="9">F29&amp;E29 &amp;","</f>
+        <v>[Description("Контролери банку")]BankControllers = 521,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30">
+        <v>522</v>
+      </c>
+      <c r="C30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="7"/>
+        <v>SignificantOwners = 522</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="8"/>
+        <v>[Description("Особи, які мають істотну участь у банку, та особи, через яких ці особи здійснюють опосередковане володіння істотною участю в банку")]</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="9"/>
+        <v>[Description("Особи, які мають істотну участь у банку, та особи, через яких ці особи здійснюють опосередковане володіння істотною участю в банку")]SignificantOwners = 522,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31">
+        <v>523</v>
+      </c>
+      <c r="C31" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="7"/>
+        <v>BankMgrsEtc = 523</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="8"/>
+        <v>[Description("Керівники банку, керівник служби внутрішнього аудиту, керівники та члени комітетів банку")]</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="9"/>
+        <v>[Description("Керівники банку, керівник служби внутрішнього аудиту, керівники та члени комітетів банку")]BankMgrsEtc = 523,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32">
+        <v>524</v>
+      </c>
+      <c r="C32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" t="s">
+        <v>231</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="7"/>
+        <v>Affiliated = 524</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="8"/>
+        <v>[Description("Споріднені та афільовані особи банку, у тому числі учасники банківської групи")]</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="9"/>
+        <v>[Description("Споріднені та афільовані особи банку, у тому числі учасники банківської групи")]Affiliated = 524,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33">
+        <v>525</v>
+      </c>
+      <c r="C33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="7"/>
+        <v>AffiliatedSignOwners = 525</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="8"/>
+        <v>[Description("Особи, які мають істотну участь у споріднених та афільованих особах банку")]</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="9"/>
+        <v>[Description("Особи, які мають істотну участь у споріднених та афільованих особах банку")]AffiliatedSignOwners = 525,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34">
+        <v>526</v>
+      </c>
+      <c r="C34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="7"/>
+        <v>AffiliatedMgrsEtc = 526</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="8"/>
+        <v>[Description("Керівники юридичних осіб та керівники банків, які є спорідненими та афільованими особами банку, керівник служби внутрішнього аудиту, керівники та члени комітетів цих осіб")]</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="9"/>
+        <v>[Description("Керівники юридичних осіб та керівники банків, які є спорідненими та афільованими особами банку, керівник служби внутрішнього аудиту, керівники та члени комітетів цих осіб")]AffiliatedMgrsEtc = 526,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35">
+        <v>527</v>
+      </c>
+      <c r="C35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="7"/>
+        <v>AssocPersonsArt52pp16 = 527</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="8"/>
+        <v>[Description("Асоційовані особи фізичних осіб, зазначених у пунктах 1 – 6 частини першої статті 52 Закону")]</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="9"/>
+        <v>[Description("Асоційовані особи фізичних осіб, зазначених у пунктах 1 – 6 частини першої статті 52 Закону")]AssocPersonsArt52pp16 = 527,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36">
+        <v>528</v>
+      </c>
+      <c r="C36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" t="s">
+        <v>235</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="7"/>
+        <v>Art52MgrsSignOwnersLPs = 528</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="8"/>
+        <v>[Description("Юридичні особи, у яких фізичні особи, зазначені в частині першій статті 52 Закону, є керівниками або власниками істотної участі")]</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="9"/>
+        <v>[Description("Юридичні особи, у яких фізичні особи, зазначені в частині першій статті 52 Закону, є керівниками або власниками істотної участі")]Art52MgrsSignOwnersLPs = 528,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37">
+        <v>529</v>
+      </c>
+      <c r="C37" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="7"/>
+        <v>AnyPersonInfluencingArt52 = 529</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="8"/>
+        <v>[Description("Будь-яка особа, через яку проводиться операція в інтересах осіб, зазначених у частині першій статті 52 Закону, та на яку здійснюють вплив під час проведення такої операції особи, зазначені в цій частині, через трудові, цивільні та інші відносини")]</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="9"/>
+        <v>[Description("Будь-яка особа, через яку проводиться операція в інтересах осіб, зазначених у частині першій статті 52 Закону, та на яку здійснюють вплив під час проведення такої операції особи, зазначені в цій частині, через трудові, цивільні та інші відносини")]AnyPersonInfluencingArt52 = 529,</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BGU.DRPL.SignificantOwnership/Codegen/BGU_xsd_outil16.xlsx
+++ b/BGU.DRPL.SignificantOwnership/Codegen/BGU_xsd_outil16.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\vmdrot\DEV\_tut\BGU.DRPL.SignificantOwnership\Codegen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9915" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,8 +17,9 @@
     <sheet name="TypeEditors" sheetId="3" r:id="rId3"/>
     <sheet name="XSDTypeTransls" sheetId="4" r:id="rId4"/>
     <sheet name="Enums" sheetId="5" r:id="rId5"/>
+    <sheet name="EnumsLister" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="277">
   <si>
     <t>ClassName</t>
   </si>
@@ -764,6 +770,96 @@
   </si>
   <si>
     <t>AnyPersonInfluencingArt52</t>
+  </si>
+  <si>
+    <t>EntityType</t>
+  </si>
+  <si>
+    <t>ListerMethodBody</t>
+  </si>
+  <si>
+    <t>ListerMethodName</t>
+  </si>
+  <si>
+    <t>OwnershipType</t>
+  </si>
+  <si>
+    <t>SexType</t>
+  </si>
+  <si>
+    <t>EmploymentState</t>
+  </si>
+  <si>
+    <t>EmploymentTerminationType</t>
+  </si>
+  <si>
+    <t>HigherEducationDegreeType</t>
+  </si>
+  <si>
+    <t>DegreeHonourType</t>
+  </si>
+  <si>
+    <t>FundsOriginType</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>FinancialGuarantorRoleType</t>
+  </si>
+  <si>
+    <t>BreachOfLawType</t>
+  </si>
+  <si>
+    <t>SentenceType</t>
+  </si>
+  <si>
+    <t>TypicalApplicationAttachement</t>
+  </si>
+  <si>
+    <t>AssociatedPersonRole</t>
+  </si>
+  <si>
+    <t>ManagementPosition</t>
+  </si>
+  <si>
+    <t>InsolvencyStatus</t>
+  </si>
+  <si>
+    <t>WellKnownCreditRatingAgencyType</t>
+  </si>
+  <si>
+    <t>LongTermCreditRatingType</t>
+  </si>
+  <si>
+    <t>BankruptcyCaseResolutionType</t>
+  </si>
+  <si>
+    <t>ShortTermCreditRatingType</t>
+  </si>
+  <si>
+    <t>CourtInstanceType</t>
+  </si>
+  <si>
+    <t>CourtDecisionType</t>
+  </si>
+  <si>
+    <t>FinancialInstitutionType</t>
+  </si>
+  <si>
+    <t>FinancialInstitutionStatus</t>
+  </si>
+  <si>
+    <t>CompanyOwnershipType</t>
+  </si>
+  <si>
+    <t>InstitutionLevel</t>
+  </si>
+  <si>
+    <t>ListerPropertyName</t>
+  </si>
+  <si>
+    <t>ListerPropertyNameBody</t>
   </si>
 </sst>
 </file>
@@ -815,7 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1085,7 +1181,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4404,8 +4500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="A1:G37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5395,4 +5491,649 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"List"&amp;TRIM(A2)</f>
+        <v>ListEntityType</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"public List&lt;EnumType&gt; "&amp;B2 &amp;"() { return EnumType.GetEnumList(typeof("&amp;A2&amp;")); }"</f>
+        <v>public List&lt;EnumType&gt; ListEntityType() { return EnumType.GetEnumList(typeof(EntityType)); }</v>
+      </c>
+      <c r="D2" t="str">
+        <f>A2&amp;"List"</f>
+        <v>EntityTypeList</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"public static List&lt;EnumType&gt; "&amp;D2 &amp;" { get { return EnumType.GetEnumList(typeof("&amp;A2&amp;")); }}"</f>
+        <v>public static List&lt;EnumType&gt; EntityTypeList { get { return EnumType.GetEnumList(typeof(EntityType)); }}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B30" si="0">"List"&amp;TRIM(A3)</f>
+        <v>ListOwnershipType</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C26" si="1">"public List&lt;EnumType&gt; "&amp;B3 &amp;"() { return EnumType.GetEnumList(typeof("&amp;A3&amp;")); }"</f>
+        <v>public List&lt;EnumType&gt; ListOwnershipType() { return EnumType.GetEnumList(typeof(OwnershipType)); }</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D30" si="2">A3&amp;"List"</f>
+        <v>OwnershipTypeList</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E30" si="3">"public static List&lt;EnumType&gt; "&amp;D3 &amp;" { get { return EnumType.GetEnumList(typeof("&amp;A3&amp;")); }}"</f>
+        <v>public static List&lt;EnumType&gt; OwnershipTypeList { get { return EnumType.GetEnumList(typeof(OwnershipType)); }}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>ListSexType</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListSexType() { return EnumType.GetEnumList(typeof(SexType)); }</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>SexTypeList</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; SexTypeList { get { return EnumType.GetEnumList(typeof(SexType)); }}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>ListEmploymentState</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListEmploymentState() { return EnumType.GetEnumList(typeof(EmploymentState)); }</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>EmploymentStateList</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; EmploymentStateList { get { return EnumType.GetEnumList(typeof(EmploymentState)); }}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>ListEmploymentTerminationType</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListEmploymentTerminationType() { return EnumType.GetEnumList(typeof(EmploymentTerminationType)); }</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>EmploymentTerminationTypeList</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; EmploymentTerminationTypeList { get { return EnumType.GetEnumList(typeof(EmploymentTerminationType)); }}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>ListHigherEducationDegreeType</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListHigherEducationDegreeType() { return EnumType.GetEnumList(typeof(HigherEducationDegreeType)); }</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>HigherEducationDegreeTypeList</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; HigherEducationDegreeTypeList { get { return EnumType.GetEnumList(typeof(HigherEducationDegreeType)); }}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>ListDegreeHonourType</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListDegreeHonourType() { return EnumType.GetEnumList(typeof(DegreeHonourType)); }</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>DegreeHonourTypeList</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; DegreeHonourTypeList { get { return EnumType.GetEnumList(typeof(DegreeHonourType)); }}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>ListFundsOriginType</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListFundsOriginType() { return EnumType.GetEnumList(typeof(FundsOriginType)); }</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>FundsOriginTypeList</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; FundsOriginTypeList { get { return EnumType.GetEnumList(typeof(FundsOriginType)); }}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>ListPaymentType</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListPaymentType() { return EnumType.GetEnumList(typeof(PaymentType)); }</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>PaymentTypeList</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; PaymentTypeList { get { return EnumType.GetEnumList(typeof(PaymentType)); }}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>ListFinancialGuarantorRoleType</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListFinancialGuarantorRoleType() { return EnumType.GetEnumList(typeof(FinancialGuarantorRoleType)); }</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>FinancialGuarantorRoleTypeList</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; FinancialGuarantorRoleTypeList { get { return EnumType.GetEnumList(typeof(FinancialGuarantorRoleType)); }}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>ListBreachOfLawType</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListBreachOfLawType() { return EnumType.GetEnumList(typeof(BreachOfLawType)); }</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>BreachOfLawTypeList</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; BreachOfLawTypeList { get { return EnumType.GetEnumList(typeof(BreachOfLawType)); }}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>ListSentenceType</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListSentenceType() { return EnumType.GetEnumList(typeof(SentenceType)); }</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>SentenceTypeList</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; SentenceTypeList { get { return EnumType.GetEnumList(typeof(SentenceType)); }}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>ListTypicalApplicationAttachement</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListTypicalApplicationAttachement() { return EnumType.GetEnumList(typeof(TypicalApplicationAttachement)); }</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>TypicalApplicationAttachementList</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; TypicalApplicationAttachementList { get { return EnumType.GetEnumList(typeof(TypicalApplicationAttachement)); }}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>ListFinancialServicesType</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListFinancialServicesType() { return EnumType.GetEnumList(typeof(FinancialServicesType)); }</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>FinancialServicesTypeList</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; FinancialServicesTypeList { get { return EnumType.GetEnumList(typeof(FinancialServicesType)); }}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>ListBankingActivityType</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListBankingActivityType() { return EnumType.GetEnumList(typeof(BankingActivityType)); }</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>BankingActivityTypeList</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; BankingActivityTypeList { get { return EnumType.GetEnumList(typeof(BankingActivityType)); }}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>ListAssociatedPersonRole</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListAssociatedPersonRole() { return EnumType.GetEnumList(typeof(AssociatedPersonRole)); }</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>AssociatedPersonRoleList</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; AssociatedPersonRoleList { get { return EnumType.GetEnumList(typeof(AssociatedPersonRole)); }}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>ListManagementPosition</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListManagementPosition() { return EnumType.GetEnumList(typeof(ManagementPosition)); }</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>ManagementPositionList</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; ManagementPositionList { get { return EnumType.GetEnumList(typeof(ManagementPosition)); }}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>ListInsolvencyStatus</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListInsolvencyStatus() { return EnumType.GetEnumList(typeof(InsolvencyStatus)); }</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>InsolvencyStatusList</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; InsolvencyStatusList { get { return EnumType.GetEnumList(typeof(InsolvencyStatus)); }}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>ListWellKnownCreditRatingAgencyType</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListWellKnownCreditRatingAgencyType() { return EnumType.GetEnumList(typeof(WellKnownCreditRatingAgencyType)); }</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>WellKnownCreditRatingAgencyTypeList</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; WellKnownCreditRatingAgencyTypeList { get { return EnumType.GetEnumList(typeof(WellKnownCreditRatingAgencyType)); }}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>ListLongTermCreditRatingType</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListLongTermCreditRatingType() { return EnumType.GetEnumList(typeof(LongTermCreditRatingType)); }</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>LongTermCreditRatingTypeList</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; LongTermCreditRatingTypeList { get { return EnumType.GetEnumList(typeof(LongTermCreditRatingType)); }}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>ListShortTermCreditRatingType</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListShortTermCreditRatingType() { return EnumType.GetEnumList(typeof(ShortTermCreditRatingType)); }</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v>ShortTermCreditRatingTypeList</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; ShortTermCreditRatingTypeList { get { return EnumType.GetEnumList(typeof(ShortTermCreditRatingType)); }}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>ListBankruptcyCaseResolutionType</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListBankruptcyCaseResolutionType() { return EnumType.GetEnumList(typeof(BankruptcyCaseResolutionType)); }</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>BankruptcyCaseResolutionTypeList</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; BankruptcyCaseResolutionTypeList { get { return EnumType.GetEnumList(typeof(BankruptcyCaseResolutionType)); }}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>ListCourtInstanceType</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListCourtInstanceType() { return EnumType.GetEnumList(typeof(CourtInstanceType)); }</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>CourtInstanceTypeList</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; CourtInstanceTypeList { get { return EnumType.GetEnumList(typeof(CourtInstanceType)); }}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>ListCourtDecisionType</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListCourtDecisionType() { return EnumType.GetEnumList(typeof(CourtDecisionType)); }</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v>CourtDecisionTypeList</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; CourtDecisionTypeList { get { return EnumType.GetEnumList(typeof(CourtDecisionType)); }}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>ListBankAssociatedPeronsCode315p</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>public List&lt;EnumType&gt; ListBankAssociatedPeronsCode315p() { return EnumType.GetEnumList(typeof(BankAssociatedPeronsCode315p)); }</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v>BankAssociatedPeronsCode315pList</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; BankAssociatedPeronsCode315pList { get { return EnumType.GetEnumList(typeof(BankAssociatedPeronsCode315p)); }}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>ListFinancialInstitutionType</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" ref="C27:C30" si="4">"public List&lt;EnumType&gt; "&amp;B27 &amp;"() { return EnumType.GetEnumList(typeof("&amp;A27&amp;")); }"</f>
+        <v>public List&lt;EnumType&gt; ListFinancialInstitutionType() { return EnumType.GetEnumList(typeof(FinancialInstitutionType)); }</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>FinancialInstitutionTypeList</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; FinancialInstitutionTypeList { get { return EnumType.GetEnumList(typeof(FinancialInstitutionType)); }}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>ListFinancialInstitutionStatus</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="4"/>
+        <v>public List&lt;EnumType&gt; ListFinancialInstitutionStatus() { return EnumType.GetEnumList(typeof(FinancialInstitutionStatus)); }</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>FinancialInstitutionStatusList</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; FinancialInstitutionStatusList { get { return EnumType.GetEnumList(typeof(FinancialInstitutionStatus)); }}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>ListCompanyOwnershipType</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="4"/>
+        <v>public List&lt;EnumType&gt; ListCompanyOwnershipType() { return EnumType.GetEnumList(typeof(CompanyOwnershipType)); }</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>CompanyOwnershipTypeList</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; CompanyOwnershipTypeList { get { return EnumType.GetEnumList(typeof(CompanyOwnershipType)); }}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>ListInstitutionLevel</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="4"/>
+        <v>public List&lt;EnumType&gt; ListInstitutionLevel() { return EnumType.GetEnumList(typeof(InstitutionLevel)); }</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>InstitutionLevelList</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="3"/>
+        <v>public static List&lt;EnumType&gt; InstitutionLevelList { get { return EnumType.GetEnumList(typeof(InstitutionLevel)); }}</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>